--- a/userfiles/file/quiz/user/Data Upload Kompetensi (1).xlsx
+++ b/userfiles/file/quiz/user/Data Upload Kompetensi (1).xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>No</t>
   </si>
@@ -46,12 +46,6 @@
     <t>Jadwal</t>
   </si>
   <si>
-    <t>Total Pre Test</t>
-  </si>
-  <si>
-    <t>Total Post Test</t>
-  </si>
-  <si>
     <t>Aan Septian</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
   </si>
   <si>
     <t>Irigasi Processed Pineapple</t>
-  </si>
-  <si>
-    <t>Kompetensi 1</t>
   </si>
   <si>
     <t>Kompetensi 2</t>
@@ -163,13 +154,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -507,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -523,95 +511,56 @@
     <col min="6" max="6" width="11.69921875" customWidth="1"/>
     <col min="7" max="14" width="11.69921875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="25" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -619,10 +568,10 @@
         <v>91223039410</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2">
         <v>45350</v>
@@ -657,55 +606,19 @@
       <c r="O2" s="1">
         <v>0</v>
       </c>
-      <c r="P2" s="3">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>4</v>
-      </c>
-      <c r="R2" s="1">
-        <v>5</v>
-      </c>
-      <c r="S2" s="1">
-        <v>4</v>
-      </c>
-      <c r="T2" s="1">
-        <v>4</v>
-      </c>
-      <c r="U2" s="1">
-        <v>3</v>
-      </c>
-      <c r="V2" s="1">
-        <v>3</v>
-      </c>
-      <c r="W2" s="1">
-        <v>2</v>
-      </c>
-      <c r="X2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>32</v>
-      </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>90052270</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2">
         <v>45352</v>
@@ -739,42 +652,6 @@
       </c>
       <c r="O3" s="1">
         <v>4</v>
-      </c>
-      <c r="P3" s="3">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>5</v>
-      </c>
-      <c r="R3" s="1">
-        <v>5</v>
-      </c>
-      <c r="S3" s="1">
-        <v>4</v>
-      </c>
-      <c r="T3" s="1">
-        <v>5</v>
-      </c>
-      <c r="U3" s="1">
-        <v>5</v>
-      </c>
-      <c r="V3" s="1">
-        <v>5</v>
-      </c>
-      <c r="W3" s="1">
-        <v>3</v>
-      </c>
-      <c r="X3" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
